--- a/static/doc/excel/data_admin_sub_admin.xlsx
+++ b/static/doc/excel/data_admin_sub_admin.xlsx
@@ -409,7 +409,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -418,11 +418,11 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="4" customWidth="1" style="1" min="1" max="1"/>
-    <col width="32" customWidth="1" style="1" min="2" max="2"/>
-    <col width="28" customWidth="1" style="1" min="3" max="3"/>
+    <col width="8" customWidth="1" style="1" min="2" max="2"/>
+    <col width="17" customWidth="1" style="1" min="3" max="3"/>
     <col width="13" customWidth="1" style="1" min="4" max="4"/>
     <col width="7" customWidth="1" style="1" min="5" max="5"/>
-    <col width="54" customWidth="1" style="1" min="6" max="6"/>
+    <col width="112" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.5" customHeight="1">
@@ -470,7 +470,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Taufiqadminasss</t>
+          <t>Admin1</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -490,97 +490,7 @@
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>https://i.ibb.co.com/KFBc5BM/unnamed.jpg unnamed.jpg</t>
-        </is>
-      </c>
-    </row>
-    <row r="4" customHeight="1">
-      <c r="A4" s="4" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>Salahudin kholik Prasetonoss</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>admin5@gmail.com</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>Superuser</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>https://i.ibb.co.com/5Yd94zx/user.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="5" customHeight="1">
-      <c r="A5" s="4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>Salahudin kholik Prasetono</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>salahudinkoliq10@gmail.com</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>Superuser</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>https://i.ibb.co.com/5Yd94zx/user.png</t>
-        </is>
-      </c>
-    </row>
-    <row r="6" customHeight="1">
-      <c r="A6" s="4" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>Salahudin kholik Prasetonossss</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>salahudinkoliq15@gmail.com</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>Superuser</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>Admin</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>https://i.ibb.co.com/5Yd94zx/user.png</t>
+          <t>https://i.ibb.co.com/k4cwRSL/forgot-password-concept-illustration.png forgot-password-concept-illustration.png</t>
         </is>
       </c>
     </row>

--- a/static/doc/excel/data_admin_sub_admin.xlsx
+++ b/static/doc/excel/data_admin_sub_admin.xlsx
@@ -15,7 +15,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode=";;;"/>
+  </numFmts>
   <fonts count="4">
     <font>
       <name val="Calibri"/>
@@ -97,7 +99,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -111,6 +113,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -118,6 +123,36 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors/>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>2</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="1" name="Image 1" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -404,7 +439,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
@@ -422,7 +457,7 @@
     <col width="17" customWidth="1" style="1" min="3" max="3"/>
     <col width="13" customWidth="1" style="1" min="4" max="4"/>
     <col width="7" customWidth="1" style="1" min="5" max="5"/>
-    <col width="112" customWidth="1" style="1" min="6" max="6"/>
+    <col width="13" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1" ht="32.5" customHeight="1">
@@ -464,7 +499,7 @@
         </is>
       </c>
     </row>
-    <row r="3" customHeight="1">
+    <row r="3" ht="44" customHeight="1">
       <c r="A3" s="4" t="n">
         <v>1</v>
       </c>
@@ -488,7 +523,7 @@
           <t>Admin</t>
         </is>
       </c>
-      <c r="F3" s="4" t="inlineStr">
+      <c r="F3" s="5" t="inlineStr">
         <is>
           <t>https://i.ibb.co.com/k4cwRSL/forgot-password-concept-illustration.png forgot-password-concept-illustration.png</t>
         </is>
@@ -499,5 +534,6 @@
     <mergeCell ref="A1:F1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/static/doc/excel/data_admin_sub_admin.xlsx
+++ b/static/doc/excel/data_admin_sub_admin.xlsx
@@ -152,6 +152,106 @@
     </pic>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>3</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="2" name="Image 2" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>4</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="3" name="Image 3" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>5</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="4" name="Image 4" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>5</col>
+      <colOff>0</colOff>
+      <row>6</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="476250" cy="476250"/>
+    <pic>
+      <nvPicPr>
+        <cNvPr id="5" name="Image 5" descr="Picture"/>
+        <cNvPicPr/>
+      </nvPicPr>
+      <blipFill>
+        <a:blip cstate="print" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </blipFill>
+      <spPr>
+        <a:prstGeom prst="rect"/>
+      </spPr>
+    </pic>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
@@ -444,7 +544,7 @@
     <outlinePr summaryBelow="0"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F8" sqref="F8"/>
@@ -453,10 +553,10 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
     <col width="4" customWidth="1" style="1" min="1" max="1"/>
-    <col width="8" customWidth="1" style="1" min="2" max="2"/>
-    <col width="17" customWidth="1" style="1" min="3" max="3"/>
+    <col width="32" customWidth="1" style="1" min="2" max="2"/>
+    <col width="18" customWidth="1" style="1" min="3" max="3"/>
     <col width="13" customWidth="1" style="1" min="4" max="4"/>
-    <col width="7" customWidth="1" style="1" min="5" max="5"/>
+    <col width="11" customWidth="1" style="1" min="5" max="5"/>
     <col width="13" customWidth="1" style="1" min="6" max="6"/>
   </cols>
   <sheetData>
@@ -505,7 +605,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>Admin1</t>
+          <t>Administrator Superuser</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -525,7 +625,127 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>https://i.ibb.co.com/k4cwRSL/forgot-password-concept-illustration.png forgot-password-concept-illustration.png</t>
+          <t>https://i.ibb.co.com/qYvWbwVj/unnamed.jpg unnamed.jpg</t>
+        </is>
+      </c>
+    </row>
+    <row r="4" ht="44" customHeight="1">
+      <c r="A4" s="4" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" s="4" t="inlineStr">
+        <is>
+          <t>Salahudin Kholik Prasetonosa</t>
+        </is>
+      </c>
+      <c r="C4" s="4" t="inlineStr">
+        <is>
+          <t>admin1@gmail.com</t>
+        </is>
+      </c>
+      <c r="D4" s="4" t="inlineStr">
+        <is>
+          <t>Superuser</t>
+        </is>
+      </c>
+      <c r="E4" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="F4" s="5" t="inlineStr">
+        <is>
+          <t>https://i.ibb.co.com/B2FVd2n6/ui-design.png ui-design.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="5" ht="44" customHeight="1">
+      <c r="A5" s="4" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" s="4" t="inlineStr">
+        <is>
+          <t>taufiqs</t>
+        </is>
+      </c>
+      <c r="C5" s="4" t="inlineStr">
+        <is>
+          <t>admin4@gmail.com</t>
+        </is>
+      </c>
+      <c r="D5" s="4" t="inlineStr">
+        <is>
+          <t>Mentor</t>
+        </is>
+      </c>
+      <c r="E5" s="4" t="inlineStr">
+        <is>
+          <t>Admin</t>
+        </is>
+      </c>
+      <c r="F5" s="5" t="inlineStr">
+        <is>
+          <t>https://i.ibb.co.com/5Yd94zx/user.png user.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="6" ht="44" customHeight="1">
+      <c r="A6" s="4" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" s="4" t="inlineStr">
+        <is>
+          <t>Salahudin kholik Prasetyono</t>
+        </is>
+      </c>
+      <c r="C6" s="4" t="inlineStr">
+        <is>
+          <t>admin5@gmail.com</t>
+        </is>
+      </c>
+      <c r="D6" s="4" t="inlineStr">
+        <is>
+          <t>Mentor</t>
+        </is>
+      </c>
+      <c r="E6" s="4" t="inlineStr">
+        <is>
+          <t>Sub Admin</t>
+        </is>
+      </c>
+      <c r="F6" s="5" t="inlineStr">
+        <is>
+          <t>https://i.ibb.co.com/5Yd94zx/user.png</t>
+        </is>
+      </c>
+    </row>
+    <row r="7" ht="44" customHeight="1">
+      <c r="A7" s="4" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" s="4" t="inlineStr">
+        <is>
+          <t>Salahudin Kholik Prasetyonobos</t>
+        </is>
+      </c>
+      <c r="C7" s="4" t="inlineStr">
+        <is>
+          <t>admin2@gmail.com</t>
+        </is>
+      </c>
+      <c r="D7" s="4" t="inlineStr">
+        <is>
+          <t>Superuser</t>
+        </is>
+      </c>
+      <c r="E7" s="4" t="inlineStr">
+        <is>
+          <t>Sub Admin</t>
+        </is>
+      </c>
+      <c r="F7" s="5" t="inlineStr">
+        <is>
+          <t>https://i.ibb.co.com/5Yd94zx/user.png</t>
         </is>
       </c>
     </row>
